--- a/flows/COMT_fund_flow_data.xlsx
+++ b/flows/COMT_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2356"/>
+  <dimension ref="A1:B2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23995,6 +23995,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B2357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B2358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B2359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B2360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2366" t="n">
+        <v>-5.13204</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2374" t="n">
+        <v>-10.39552</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2377" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
